--- a/src/main/resources/files/三国员工数据表.xlsx
+++ b/src/main/resources/files/三国员工数据表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgfy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java_work\just4fun\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>大都督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,6 +478,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/files/三国员工数据表.xlsx
+++ b/src/main/resources/files/三国员工数据表.xlsx
@@ -82,7 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>110101200101011731</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/src/main/resources/files/三国员工数据表.xlsx
+++ b/src/main/resources/files/三国员工数据表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>110101200101011731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹魏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,6 +489,9 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
